--- a/biology/Histoire de la zoologie et de la botanique/David_M._Spratt/David_M._Spratt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_M._Spratt/David_M._Spratt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David M. Spratt, né en 1942 à Toronto (Canada), est un parasitologue ayant fait l'essentiel de sa carrière en Australie. Il étudie la biologie et la taxinomie de nématodes, trématodes, cestodes, pentastomides, moustiques et autres nématocères parasites, taons, puces, tiques et acariens parasites des vertébrés australiens.
 </t>
